--- a/steady.xlsx
+++ b/steady.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4015" uniqueCount="2951">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6778" uniqueCount="4996">
   <si>
     <t>Row</t>
   </si>
@@ -8833,6 +8833,6141 @@
   </si>
   <si>
     <t>Technology</t>
+  </si>
+  <si>
+    <t>Capital to output ratio</t>
+  </si>
+  <si>
+    <t>Log of output</t>
+  </si>
+  <si>
+    <t>Shock to technology</t>
+  </si>
+  <si>
+    <t>Shock to labor force</t>
+  </si>
+  <si>
+    <t>Shock to saving ratio</t>
+  </si>
+  <si>
+    <t>Gross rate of chang in technology</t>
+  </si>
+  <si>
+    <t>Labor share of production</t>
+  </si>
+  <si>
+    <t>Depreciation of capital</t>
+  </si>
+  <si>
+    <t>Gross rate of growth in labor force</t>
+  </si>
+  <si>
+    <t>Saving ratio</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>k_to_y</t>
+  </si>
+  <si>
+    <t>yy</t>
+  </si>
+  <si>
+    <t>shk_a</t>
+  </si>
+  <si>
+    <t>shk_n</t>
+  </si>
+  <si>
+    <t>shk_c</t>
+  </si>
+  <si>
+    <t>ss_roc_a</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>ss_roc_n</t>
+  </si>
+  <si>
+    <t>sigma</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel</t>
+  </si>
+  <si>
+    <t>SteadyChange</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Consumption</t>
+  </si>
+  <si>
+    <t>Investment</t>
+  </si>
+  <si>
+    <t>Capital</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Capital to output ratio</t>
+  </si>
+  <si>
+    <t>Log of output</t>
+  </si>
+  <si>
+    <t>Shock to technology</t>
+  </si>
+  <si>
+    <t>Shock to labor force</t>
+  </si>
+  <si>
+    <t>Shock to saving ratio</t>
+  </si>
+  <si>
+    <t>Gross rate of chang in technology</t>
+  </si>
+  <si>
+    <t>Labor share of production</t>
+  </si>
+  <si>
+    <t>Depreciation of capital</t>
+  </si>
+  <si>
+    <t>Gross rate of growth in labor force</t>
+  </si>
+  <si>
+    <t>Saving ratio</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>k_to_y</t>
+  </si>
+  <si>
+    <t>yy</t>
+  </si>
+  <si>
+    <t>shk_a</t>
+  </si>
+  <si>
+    <t>shk_n</t>
+  </si>
+  <si>
+    <t>shk_c</t>
+  </si>
+  <si>
+    <t>ss_roc_a</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>ss_roc_n</t>
+  </si>
+  <si>
+    <t>sigma</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel</t>
+  </si>
+  <si>
+    <t>SteadyChange</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Consumption</t>
+  </si>
+  <si>
+    <t>Investment</t>
+  </si>
+  <si>
+    <t>Capital</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Capital to output ratio</t>
+  </si>
+  <si>
+    <t>Log of output</t>
+  </si>
+  <si>
+    <t>Shock to technology</t>
+  </si>
+  <si>
+    <t>Shock to labor force</t>
+  </si>
+  <si>
+    <t>Shock to saving ratio</t>
+  </si>
+  <si>
+    <t>Gross rate of chang in technology</t>
+  </si>
+  <si>
+    <t>Labor share of production</t>
+  </si>
+  <si>
+    <t>Depreciation of capital</t>
+  </si>
+  <si>
+    <t>Gross rate of growth in labor force</t>
+  </si>
+  <si>
+    <t>Saving ratio</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>k_to_y</t>
+  </si>
+  <si>
+    <t>yy</t>
+  </si>
+  <si>
+    <t>shk_a</t>
+  </si>
+  <si>
+    <t>shk_n</t>
+  </si>
+  <si>
+    <t>shk_c</t>
+  </si>
+  <si>
+    <t>ss_roc_a</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>ss_roc_n</t>
+  </si>
+  <si>
+    <t>sigma</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel</t>
+  </si>
+  <si>
+    <t>SteadyChange</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Consumption</t>
+  </si>
+  <si>
+    <t>Investment</t>
+  </si>
+  <si>
+    <t>Capital</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Capital to output ratio</t>
+  </si>
+  <si>
+    <t>Log of output</t>
+  </si>
+  <si>
+    <t>Shock to technology</t>
+  </si>
+  <si>
+    <t>Shock to labor force</t>
+  </si>
+  <si>
+    <t>Shock to saving ratio</t>
+  </si>
+  <si>
+    <t>Gross rate of chang in technology</t>
+  </si>
+  <si>
+    <t>Labor share of production</t>
+  </si>
+  <si>
+    <t>Depreciation of capital</t>
+  </si>
+  <si>
+    <t>Gross rate of growth in labor force</t>
+  </si>
+  <si>
+    <t>Saving ratio</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>k_to_y</t>
+  </si>
+  <si>
+    <t>yy</t>
+  </si>
+  <si>
+    <t>shk_a</t>
+  </si>
+  <si>
+    <t>shk_n</t>
+  </si>
+  <si>
+    <t>shk_c</t>
+  </si>
+  <si>
+    <t>ss_roc_a</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>ss_roc_n</t>
+  </si>
+  <si>
+    <t>sigma</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel</t>
+  </si>
+  <si>
+    <t>SteadyChange</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Consumption</t>
+  </si>
+  <si>
+    <t>Investment</t>
+  </si>
+  <si>
+    <t>Capital</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Capital to output ratio</t>
+  </si>
+  <si>
+    <t>Log of output</t>
+  </si>
+  <si>
+    <t>Shock to technology</t>
+  </si>
+  <si>
+    <t>Shock to labor force</t>
+  </si>
+  <si>
+    <t>Shock to saving ratio</t>
+  </si>
+  <si>
+    <t>Gross rate of chang in technology</t>
+  </si>
+  <si>
+    <t>Labor share of production</t>
+  </si>
+  <si>
+    <t>Depreciation of capital</t>
+  </si>
+  <si>
+    <t>Gross rate of growth in labor force</t>
+  </si>
+  <si>
+    <t>Saving ratio</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>k_to_y</t>
+  </si>
+  <si>
+    <t>yy</t>
+  </si>
+  <si>
+    <t>shk_a</t>
+  </si>
+  <si>
+    <t>shk_n</t>
+  </si>
+  <si>
+    <t>shk_c</t>
+  </si>
+  <si>
+    <t>ss_roc_a</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>ss_roc_n</t>
+  </si>
+  <si>
+    <t>sigma</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel</t>
+  </si>
+  <si>
+    <t>SteadyChange</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Consumption</t>
+  </si>
+  <si>
+    <t>Investment</t>
+  </si>
+  <si>
+    <t>Capital</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Capital to output ratio</t>
+  </si>
+  <si>
+    <t>Log of output</t>
+  </si>
+  <si>
+    <t>Shock to technology</t>
+  </si>
+  <si>
+    <t>Shock to labor force</t>
+  </si>
+  <si>
+    <t>Shock to saving ratio</t>
+  </si>
+  <si>
+    <t>Gross rate of chang in technology</t>
+  </si>
+  <si>
+    <t>Labor share of production</t>
+  </si>
+  <si>
+    <t>Depreciation of capital</t>
+  </si>
+  <si>
+    <t>Gross rate of growth in labor force</t>
+  </si>
+  <si>
+    <t>Saving ratio</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>k_to_y</t>
+  </si>
+  <si>
+    <t>yy</t>
+  </si>
+  <si>
+    <t>shk_a</t>
+  </si>
+  <si>
+    <t>shk_n</t>
+  </si>
+  <si>
+    <t>shk_c</t>
+  </si>
+  <si>
+    <t>ss_roc_a</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>ss_roc_n</t>
+  </si>
+  <si>
+    <t>sigma</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel_1</t>
+  </si>
+  <si>
+    <t>SteadyLevel_2</t>
+  </si>
+  <si>
+    <t>SteadyChange_1</t>
+  </si>
+  <si>
+    <t>SteadyChange_2</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Consumption</t>
+  </si>
+  <si>
+    <t>Investment</t>
+  </si>
+  <si>
+    <t>Capital</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Capital to output ratio</t>
+  </si>
+  <si>
+    <t>Log of output</t>
+  </si>
+  <si>
+    <t>Shock to technology</t>
+  </si>
+  <si>
+    <t>Shock to labor force</t>
+  </si>
+  <si>
+    <t>Shock to saving ratio</t>
+  </si>
+  <si>
+    <t>Gross rate of chang in technology</t>
+  </si>
+  <si>
+    <t>Labor share of production</t>
+  </si>
+  <si>
+    <t>Depreciation of capital</t>
+  </si>
+  <si>
+    <t>Gross rate of growth in labor force</t>
+  </si>
+  <si>
+    <t>Saving ratio</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>k_to_y</t>
+  </si>
+  <si>
+    <t>yy</t>
+  </si>
+  <si>
+    <t>shk_a</t>
+  </si>
+  <si>
+    <t>shk_n</t>
+  </si>
+  <si>
+    <t>shk_c</t>
+  </si>
+  <si>
+    <t>ss_roc_a</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>ss_roc_n</t>
+  </si>
+  <si>
+    <t>sigma</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel_1</t>
+  </si>
+  <si>
+    <t>SteadyLevel_2</t>
+  </si>
+  <si>
+    <t>SteadyChange_1</t>
+  </si>
+  <si>
+    <t>SteadyChange_2</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Consumption</t>
+  </si>
+  <si>
+    <t>Investment</t>
+  </si>
+  <si>
+    <t>Capital</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Capital to output ratio</t>
+  </si>
+  <si>
+    <t>Log of output</t>
+  </si>
+  <si>
+    <t>Shock to technology</t>
+  </si>
+  <si>
+    <t>Shock to labor force</t>
+  </si>
+  <si>
+    <t>Shock to saving ratio</t>
+  </si>
+  <si>
+    <t>Gross rate of chang in technology</t>
+  </si>
+  <si>
+    <t>Labor share of production</t>
+  </si>
+  <si>
+    <t>Depreciation of capital</t>
+  </si>
+  <si>
+    <t>Gross rate of growth in labor force</t>
+  </si>
+  <si>
+    <t>Saving ratio</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>k_to_y</t>
+  </si>
+  <si>
+    <t>yy</t>
+  </si>
+  <si>
+    <t>shk_a</t>
+  </si>
+  <si>
+    <t>shk_n</t>
+  </si>
+  <si>
+    <t>shk_c</t>
+  </si>
+  <si>
+    <t>ss_roc_a</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>ss_roc_n</t>
+  </si>
+  <si>
+    <t>sigma</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel</t>
+  </si>
+  <si>
+    <t>SteadyChange</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Consumption</t>
+  </si>
+  <si>
+    <t>Investment</t>
+  </si>
+  <si>
+    <t>Capital</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Capital to output ratio</t>
+  </si>
+  <si>
+    <t>Log of output</t>
+  </si>
+  <si>
+    <t>Shock to technology</t>
+  </si>
+  <si>
+    <t>Shock to labor force</t>
+  </si>
+  <si>
+    <t>Shock to saving ratio</t>
+  </si>
+  <si>
+    <t>Gross rate of chang in technology</t>
+  </si>
+  <si>
+    <t>Labor share of production</t>
+  </si>
+  <si>
+    <t>Depreciation of capital</t>
+  </si>
+  <si>
+    <t>Gross rate of growth in labor force</t>
+  </si>
+  <si>
+    <t>Saving ratio</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>k_to_y</t>
+  </si>
+  <si>
+    <t>yy</t>
+  </si>
+  <si>
+    <t>shk_a</t>
+  </si>
+  <si>
+    <t>shk_n</t>
+  </si>
+  <si>
+    <t>shk_c</t>
+  </si>
+  <si>
+    <t>ss_roc_a</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>ss_roc_n</t>
+  </si>
+  <si>
+    <t>sigma</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel</t>
+  </si>
+  <si>
+    <t>SteadyChange</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Consumption</t>
+  </si>
+  <si>
+    <t>Investment</t>
+  </si>
+  <si>
+    <t>Capital</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Capital to output ratio</t>
+  </si>
+  <si>
+    <t>Log of output</t>
+  </si>
+  <si>
+    <t>Shock to technology</t>
+  </si>
+  <si>
+    <t>Shock to labor force</t>
+  </si>
+  <si>
+    <t>Shock to saving ratio</t>
+  </si>
+  <si>
+    <t>Gross rate of chang in technology</t>
+  </si>
+  <si>
+    <t>Labor share of production</t>
+  </si>
+  <si>
+    <t>Depreciation of capital</t>
+  </si>
+  <si>
+    <t>Gross rate of growth in labor force</t>
+  </si>
+  <si>
+    <t>Saving ratio</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>k_to_y</t>
+  </si>
+  <si>
+    <t>yy</t>
+  </si>
+  <si>
+    <t>shk_a</t>
+  </si>
+  <si>
+    <t>shk_n</t>
+  </si>
+  <si>
+    <t>shk_c</t>
+  </si>
+  <si>
+    <t>ss_roc_a</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>ss_roc_n</t>
+  </si>
+  <si>
+    <t>sigma</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel</t>
+  </si>
+  <si>
+    <t>SteadyChange</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Consumption</t>
+  </si>
+  <si>
+    <t>Investment</t>
+  </si>
+  <si>
+    <t>Capital</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Capital to output ratio</t>
+  </si>
+  <si>
+    <t>Log of output</t>
+  </si>
+  <si>
+    <t>Shock to technology</t>
+  </si>
+  <si>
+    <t>Shock to labor force</t>
+  </si>
+  <si>
+    <t>Shock to saving ratio</t>
+  </si>
+  <si>
+    <t>Gross rate of chang in technology</t>
+  </si>
+  <si>
+    <t>Labor share of production</t>
+  </si>
+  <si>
+    <t>Depreciation of capital</t>
+  </si>
+  <si>
+    <t>Gross rate of growth in labor force</t>
+  </si>
+  <si>
+    <t>Saving ratio</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>k_to_y</t>
+  </si>
+  <si>
+    <t>yy</t>
+  </si>
+  <si>
+    <t>shk_a</t>
+  </si>
+  <si>
+    <t>shk_n</t>
+  </si>
+  <si>
+    <t>shk_c</t>
+  </si>
+  <si>
+    <t>ss_roc_a</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>ss_roc_n</t>
+  </si>
+  <si>
+    <t>sigma</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel</t>
+  </si>
+  <si>
+    <t>SteadyChange</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Consumption</t>
+  </si>
+  <si>
+    <t>Investment</t>
+  </si>
+  <si>
+    <t>Capital</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Capital to output ratio</t>
+  </si>
+  <si>
+    <t>Log of output</t>
+  </si>
+  <si>
+    <t>Shock to technology</t>
+  </si>
+  <si>
+    <t>Shock to labor force</t>
+  </si>
+  <si>
+    <t>Shock to saving ratio</t>
+  </si>
+  <si>
+    <t>Gross rate of chang in technology</t>
+  </si>
+  <si>
+    <t>Labor share of production</t>
+  </si>
+  <si>
+    <t>Depreciation of capital</t>
+  </si>
+  <si>
+    <t>Gross rate of growth in labor force</t>
+  </si>
+  <si>
+    <t>Saving ratio</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>k_to_y</t>
+  </si>
+  <si>
+    <t>yy</t>
+  </si>
+  <si>
+    <t>shk_a</t>
+  </si>
+  <si>
+    <t>shk_n</t>
+  </si>
+  <si>
+    <t>shk_c</t>
+  </si>
+  <si>
+    <t>ss_roc_a</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>ss_roc_n</t>
+  </si>
+  <si>
+    <t>sigma</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel</t>
+  </si>
+  <si>
+    <t>SteadyChange</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Consumption</t>
+  </si>
+  <si>
+    <t>Investment</t>
+  </si>
+  <si>
+    <t>Capital</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Capital to output ratio</t>
+  </si>
+  <si>
+    <t>Log of output</t>
+  </si>
+  <si>
+    <t>Shock to technology</t>
+  </si>
+  <si>
+    <t>Shock to labor force</t>
+  </si>
+  <si>
+    <t>Shock to saving ratio</t>
+  </si>
+  <si>
+    <t>Gross rate of chang in technology</t>
+  </si>
+  <si>
+    <t>Labor share of production</t>
+  </si>
+  <si>
+    <t>Depreciation of capital</t>
+  </si>
+  <si>
+    <t>Gross rate of growth in labor force</t>
+  </si>
+  <si>
+    <t>Saving ratio</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>k_to_y</t>
+  </si>
+  <si>
+    <t>yy</t>
+  </si>
+  <si>
+    <t>shk_a</t>
+  </si>
+  <si>
+    <t>shk_n</t>
+  </si>
+  <si>
+    <t>shk_c</t>
+  </si>
+  <si>
+    <t>ss_roc_a</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>ss_roc_n</t>
+  </si>
+  <si>
+    <t>sigma</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel</t>
+  </si>
+  <si>
+    <t>SteadyChange</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Consumption</t>
+  </si>
+  <si>
+    <t>Investment</t>
+  </si>
+  <si>
+    <t>Capital</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Capital to output ratio</t>
+  </si>
+  <si>
+    <t>Log of output</t>
+  </si>
+  <si>
+    <t>Shock to technology</t>
+  </si>
+  <si>
+    <t>Shock to labor force</t>
+  </si>
+  <si>
+    <t>Shock to saving ratio</t>
+  </si>
+  <si>
+    <t>Gross rate of chang in technology</t>
+  </si>
+  <si>
+    <t>Labor share of production</t>
+  </si>
+  <si>
+    <t>Depreciation of capital</t>
+  </si>
+  <si>
+    <t>Gross rate of growth in labor force</t>
+  </si>
+  <si>
+    <t>Saving ratio</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>k_to_y</t>
+  </si>
+  <si>
+    <t>yy</t>
+  </si>
+  <si>
+    <t>shk_a</t>
+  </si>
+  <si>
+    <t>shk_n</t>
+  </si>
+  <si>
+    <t>shk_c</t>
+  </si>
+  <si>
+    <t>ss_roc_a</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>ss_roc_n</t>
+  </si>
+  <si>
+    <t>sigma</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel</t>
+  </si>
+  <si>
+    <t>SteadyChange</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Consumption</t>
+  </si>
+  <si>
+    <t>Investment</t>
+  </si>
+  <si>
+    <t>Capital</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Capital to output ratio</t>
+  </si>
+  <si>
+    <t>Log of output</t>
+  </si>
+  <si>
+    <t>Shock to technology</t>
+  </si>
+  <si>
+    <t>Shock to labor force</t>
+  </si>
+  <si>
+    <t>Shock to saving ratio</t>
+  </si>
+  <si>
+    <t>Gross rate of chang in technology</t>
+  </si>
+  <si>
+    <t>Labor share of production</t>
+  </si>
+  <si>
+    <t>Depreciation of capital</t>
+  </si>
+  <si>
+    <t>Gross rate of growth in labor force</t>
+  </si>
+  <si>
+    <t>Saving ratio</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>shk_a</t>
+  </si>
+  <si>
+    <t>shk_n</t>
+  </si>
+  <si>
+    <t>shk_c</t>
+  </si>
+  <si>
+    <t>ss_roc_a</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>ss_roc_n</t>
+  </si>
+  <si>
+    <t>sigma</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel</t>
+  </si>
+  <si>
+    <t>SteadyChange</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Consumption</t>
+  </si>
+  <si>
+    <t>Investment</t>
+  </si>
+  <si>
+    <t>Capital</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Shock to technology</t>
+  </si>
+  <si>
+    <t>Shock to labor force</t>
+  </si>
+  <si>
+    <t>Shock to saving ratio</t>
+  </si>
+  <si>
+    <t>Gross rate of chang in technology</t>
+  </si>
+  <si>
+    <t>Labor share of production</t>
+  </si>
+  <si>
+    <t>Depreciation of capital</t>
+  </si>
+  <si>
+    <t>Gross rate of growth in labor force</t>
+  </si>
+  <si>
+    <t>Saving ratio</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>shk_a</t>
+  </si>
+  <si>
+    <t>shk_n</t>
+  </si>
+  <si>
+    <t>shk_c</t>
+  </si>
+  <si>
+    <t>ss_roc_a</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>sigma</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel</t>
+  </si>
+  <si>
+    <t>SteadyChange</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Consumption</t>
+  </si>
+  <si>
+    <t>Investment</t>
+  </si>
+  <si>
+    <t>Capital</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Shock to technology</t>
+  </si>
+  <si>
+    <t>Shock to labor force</t>
+  </si>
+  <si>
+    <t>Shock to saving ratio</t>
+  </si>
+  <si>
+    <t>Gross rate of chang in technology</t>
+  </si>
+  <si>
+    <t>Labor share of production</t>
+  </si>
+  <si>
+    <t>Depreciation of capital</t>
+  </si>
+  <si>
+    <t>Saving ratio</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>shk_a</t>
+  </si>
+  <si>
+    <t>shk_n</t>
+  </si>
+  <si>
+    <t>shk_c</t>
+  </si>
+  <si>
+    <t>ss_roc_a</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>sigma</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel</t>
+  </si>
+  <si>
+    <t>SteadyChange</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Consumption</t>
+  </si>
+  <si>
+    <t>Investment</t>
+  </si>
+  <si>
+    <t>Capital</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Shock to technology</t>
+  </si>
+  <si>
+    <t>Shock to labor force</t>
+  </si>
+  <si>
+    <t>Shock to saving ratio</t>
+  </si>
+  <si>
+    <t>Gross rate of chang in technology</t>
+  </si>
+  <si>
+    <t>Labor share of production</t>
+  </si>
+  <si>
+    <t>Depreciation of capital</t>
+  </si>
+  <si>
+    <t>Saving ratio</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>shk_a</t>
+  </si>
+  <si>
+    <t>shk_n</t>
+  </si>
+  <si>
+    <t>shk_c</t>
+  </si>
+  <si>
+    <t>ss_roc_a</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>sigma</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel</t>
+  </si>
+  <si>
+    <t>SteadyChange</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Consumption</t>
+  </si>
+  <si>
+    <t>Investment</t>
+  </si>
+  <si>
+    <t>Capital</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Shock to technology</t>
+  </si>
+  <si>
+    <t>Shock to labor force</t>
+  </si>
+  <si>
+    <t>Shock to saving ratio</t>
+  </si>
+  <si>
+    <t>Gross rate of chang in technology</t>
+  </si>
+  <si>
+    <t>Labor share of production</t>
+  </si>
+  <si>
+    <t>Depreciation of capital</t>
+  </si>
+  <si>
+    <t>Saving ratio</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>shk_a</t>
+  </si>
+  <si>
+    <t>shk_n</t>
+  </si>
+  <si>
+    <t>shk_c</t>
+  </si>
+  <si>
+    <t>ss_roc_a</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>sigma</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel</t>
+  </si>
+  <si>
+    <t>SteadyChange</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Consumption</t>
+  </si>
+  <si>
+    <t>Investment</t>
+  </si>
+  <si>
+    <t>Capital</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Shock to technology</t>
+  </si>
+  <si>
+    <t>Shock to labor force</t>
+  </si>
+  <si>
+    <t>Shock to saving ratio</t>
+  </si>
+  <si>
+    <t>Gross rate of chang in technology</t>
+  </si>
+  <si>
+    <t>Labor share of production</t>
+  </si>
+  <si>
+    <t>Depreciation of capital</t>
+  </si>
+  <si>
+    <t>Saving ratio</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>shk_a</t>
+  </si>
+  <si>
+    <t>shk_n</t>
+  </si>
+  <si>
+    <t>shk_c</t>
+  </si>
+  <si>
+    <t>ss_roc_a</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>sigma</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel</t>
+  </si>
+  <si>
+    <t>SteadyChange</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Consumption</t>
+  </si>
+  <si>
+    <t>Investment</t>
+  </si>
+  <si>
+    <t>Capital</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Shock to technology</t>
+  </si>
+  <si>
+    <t>Shock to labor force</t>
+  </si>
+  <si>
+    <t>Shock to saving ratio</t>
+  </si>
+  <si>
+    <t>Gross rate of chang in technology</t>
+  </si>
+  <si>
+    <t>Labor share of production</t>
+  </si>
+  <si>
+    <t>Depreciation of capital</t>
+  </si>
+  <si>
+    <t>Saving ratio</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>shk_a</t>
+  </si>
+  <si>
+    <t>shk_n</t>
+  </si>
+  <si>
+    <t>shk_c</t>
+  </si>
+  <si>
+    <t>ss_roc_a</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>sigma</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel</t>
+  </si>
+  <si>
+    <t>SteadyChange</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Consumption</t>
+  </si>
+  <si>
+    <t>Investment</t>
+  </si>
+  <si>
+    <t>Capital</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Shock to technology</t>
+  </si>
+  <si>
+    <t>Shock to labor force</t>
+  </si>
+  <si>
+    <t>Shock to saving ratio</t>
+  </si>
+  <si>
+    <t>Gross rate of chang in technology</t>
+  </si>
+  <si>
+    <t>Labor share of production</t>
+  </si>
+  <si>
+    <t>Depreciation of capital</t>
+  </si>
+  <si>
+    <t>Saving ratio</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>shk_a</t>
+  </si>
+  <si>
+    <t>shk_n</t>
+  </si>
+  <si>
+    <t>shk_c</t>
+  </si>
+  <si>
+    <t>ss_roc_a</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>sigma</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel</t>
+  </si>
+  <si>
+    <t>SteadyChange</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Consumption</t>
+  </si>
+  <si>
+    <t>Investment</t>
+  </si>
+  <si>
+    <t>Capital</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Shock to technology</t>
+  </si>
+  <si>
+    <t>Shock to labor force</t>
+  </si>
+  <si>
+    <t>Shock to saving ratio</t>
+  </si>
+  <si>
+    <t>Gross rate of chang in technology</t>
+  </si>
+  <si>
+    <t>Labor share of production</t>
+  </si>
+  <si>
+    <t>Depreciation of capital</t>
+  </si>
+  <si>
+    <t>Saving ratio</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>shk_a</t>
+  </si>
+  <si>
+    <t>shk_n</t>
+  </si>
+  <si>
+    <t>shk_c</t>
+  </si>
+  <si>
+    <t>ss_roc_a</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>sigma</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel</t>
+  </si>
+  <si>
+    <t>SteadyChange</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Consumption</t>
+  </si>
+  <si>
+    <t>Investment</t>
+  </si>
+  <si>
+    <t>Capital</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Shock to technology</t>
+  </si>
+  <si>
+    <t>Shock to labor force</t>
+  </si>
+  <si>
+    <t>Shock to saving ratio</t>
+  </si>
+  <si>
+    <t>Gross rate of chang in technology</t>
+  </si>
+  <si>
+    <t>Labor share of production</t>
+  </si>
+  <si>
+    <t>Depreciation of capital</t>
+  </si>
+  <si>
+    <t>Saving ratio</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>shk_a</t>
+  </si>
+  <si>
+    <t>shk_n</t>
+  </si>
+  <si>
+    <t>shk_c</t>
+  </si>
+  <si>
+    <t>ss_roc_a</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>sigma</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel</t>
+  </si>
+  <si>
+    <t>SteadyChange</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Consumption</t>
+  </si>
+  <si>
+    <t>Investment</t>
+  </si>
+  <si>
+    <t>Capital</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Shock to technology</t>
+  </si>
+  <si>
+    <t>Shock to labor force</t>
+  </si>
+  <si>
+    <t>Shock to saving ratio</t>
+  </si>
+  <si>
+    <t>Gross rate of chang in technology</t>
+  </si>
+  <si>
+    <t>Labor share of production</t>
+  </si>
+  <si>
+    <t>Depreciation of capital</t>
+  </si>
+  <si>
+    <t>Saving ratio</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>shk_a</t>
+  </si>
+  <si>
+    <t>shk_n</t>
+  </si>
+  <si>
+    <t>shk_c</t>
+  </si>
+  <si>
+    <t>ss_roc_a</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>sigma</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel</t>
+  </si>
+  <si>
+    <t>SteadyChange</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Consumption</t>
+  </si>
+  <si>
+    <t>Investment</t>
+  </si>
+  <si>
+    <t>Capital</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Shock to technology</t>
+  </si>
+  <si>
+    <t>Shock to labor force</t>
+  </si>
+  <si>
+    <t>Shock to saving ratio</t>
+  </si>
+  <si>
+    <t>Gross rate of chang in technology</t>
+  </si>
+  <si>
+    <t>Labor share of production</t>
+  </si>
+  <si>
+    <t>Depreciation of capital</t>
+  </si>
+  <si>
+    <t>Saving ratio</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>shk_a</t>
+  </si>
+  <si>
+    <t>shk_n</t>
+  </si>
+  <si>
+    <t>shk_c</t>
+  </si>
+  <si>
+    <t>ss_roc_a</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>sigma</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel_1</t>
+  </si>
+  <si>
+    <t>SteadyLevel_2</t>
+  </si>
+  <si>
+    <t>SteadyChange_1</t>
+  </si>
+  <si>
+    <t>SteadyChange_2</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Consumption</t>
+  </si>
+  <si>
+    <t>Investment</t>
+  </si>
+  <si>
+    <t>Capital</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Shock to technology</t>
+  </si>
+  <si>
+    <t>Shock to labor force</t>
+  </si>
+  <si>
+    <t>Shock to saving ratio</t>
+  </si>
+  <si>
+    <t>Gross rate of chang in technology</t>
+  </si>
+  <si>
+    <t>Labor share of production</t>
+  </si>
+  <si>
+    <t>Depreciation of capital</t>
+  </si>
+  <si>
+    <t>Saving ratio</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>shk_a</t>
+  </si>
+  <si>
+    <t>shk_n</t>
+  </si>
+  <si>
+    <t>shk_c</t>
+  </si>
+  <si>
+    <t>ss_roc_a</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>sigma</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel_1</t>
+  </si>
+  <si>
+    <t>SteadyLevel_2</t>
+  </si>
+  <si>
+    <t>SteadyChange_1</t>
+  </si>
+  <si>
+    <t>SteadyChange_2</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Consumption</t>
+  </si>
+  <si>
+    <t>Investment</t>
+  </si>
+  <si>
+    <t>Capital</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Shock to technology</t>
+  </si>
+  <si>
+    <t>Shock to labor force</t>
+  </si>
+  <si>
+    <t>Shock to saving ratio</t>
+  </si>
+  <si>
+    <t>Gross rate of chang in technology</t>
+  </si>
+  <si>
+    <t>Labor share of production</t>
+  </si>
+  <si>
+    <t>Depreciation of capital</t>
+  </si>
+  <si>
+    <t>Saving ratio</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>shk_a</t>
+  </si>
+  <si>
+    <t>shk_n</t>
+  </si>
+  <si>
+    <t>shk_c</t>
+  </si>
+  <si>
+    <t>ss_roc_a</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>sigma</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel_1</t>
+  </si>
+  <si>
+    <t>SteadyLevel_2</t>
+  </si>
+  <si>
+    <t>SteadyChange_1</t>
+  </si>
+  <si>
+    <t>SteadyChange_2</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Consumption</t>
+  </si>
+  <si>
+    <t>Investment</t>
+  </si>
+  <si>
+    <t>Capital</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Shock to technology</t>
+  </si>
+  <si>
+    <t>Shock to labor force</t>
+  </si>
+  <si>
+    <t>Shock to saving ratio</t>
+  </si>
+  <si>
+    <t>Gross rate of chang in technology</t>
+  </si>
+  <si>
+    <t>Labor share of production</t>
+  </si>
+  <si>
+    <t>Depreciation of capital</t>
+  </si>
+  <si>
+    <t>Saving ratio</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>shk_a</t>
+  </si>
+  <si>
+    <t>shk_n</t>
+  </si>
+  <si>
+    <t>shk_c</t>
+  </si>
+  <si>
+    <t>ss_roc_a</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>sigma</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel</t>
+  </si>
+  <si>
+    <t>SteadyChange</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Consumption</t>
+  </si>
+  <si>
+    <t>Investment</t>
+  </si>
+  <si>
+    <t>Capital</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Shock to technology</t>
+  </si>
+  <si>
+    <t>Shock to labor force</t>
+  </si>
+  <si>
+    <t>Shock to saving ratio</t>
+  </si>
+  <si>
+    <t>Gross rate of chang in technology</t>
+  </si>
+  <si>
+    <t>Labor share of production</t>
+  </si>
+  <si>
+    <t>Depreciation of capital</t>
+  </si>
+  <si>
+    <t>Saving ratio</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>shk_a</t>
+  </si>
+  <si>
+    <t>shk_n</t>
+  </si>
+  <si>
+    <t>shk_c</t>
+  </si>
+  <si>
+    <t>ss_roc_a</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>sigma</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel</t>
+  </si>
+  <si>
+    <t>SteadyChange</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Consumption</t>
+  </si>
+  <si>
+    <t>Investment</t>
+  </si>
+  <si>
+    <t>Capital</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Shock to technology</t>
+  </si>
+  <si>
+    <t>Shock to labor force</t>
+  </si>
+  <si>
+    <t>Shock to saving ratio</t>
+  </si>
+  <si>
+    <t>Gross rate of chang in technology</t>
+  </si>
+  <si>
+    <t>Labor share of production</t>
+  </si>
+  <si>
+    <t>Depreciation of capital</t>
+  </si>
+  <si>
+    <t>Saving ratio</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>shk_a</t>
+  </si>
+  <si>
+    <t>shk_n</t>
+  </si>
+  <si>
+    <t>shk_c</t>
+  </si>
+  <si>
+    <t>ss_roc_a</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>sigma</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel</t>
+  </si>
+  <si>
+    <t>SteadyChange</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Consumption</t>
+  </si>
+  <si>
+    <t>Investment</t>
+  </si>
+  <si>
+    <t>Capital</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Shock to technology</t>
+  </si>
+  <si>
+    <t>Shock to labor force</t>
+  </si>
+  <si>
+    <t>Shock to saving ratio</t>
+  </si>
+  <si>
+    <t>Gross rate of chang in technology</t>
+  </si>
+  <si>
+    <t>Labor share of production</t>
+  </si>
+  <si>
+    <t>Depreciation of capital</t>
+  </si>
+  <si>
+    <t>Saving ratio</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>shk_a</t>
+  </si>
+  <si>
+    <t>shk_n</t>
+  </si>
+  <si>
+    <t>shk_c</t>
+  </si>
+  <si>
+    <t>ss_roc_a</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>sigma</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel</t>
+  </si>
+  <si>
+    <t>SteadyChange</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Consumption</t>
+  </si>
+  <si>
+    <t>Investment</t>
+  </si>
+  <si>
+    <t>Capital</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Shock to technology</t>
+  </si>
+  <si>
+    <t>Shock to labor force</t>
+  </si>
+  <si>
+    <t>Shock to saving ratio</t>
+  </si>
+  <si>
+    <t>Gross rate of chang in technology</t>
+  </si>
+  <si>
+    <t>Labor share of production</t>
+  </si>
+  <si>
+    <t>Depreciation of capital</t>
+  </si>
+  <si>
+    <t>Saving ratio</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>shk_a</t>
+  </si>
+  <si>
+    <t>shk_n</t>
+  </si>
+  <si>
+    <t>shk_c</t>
+  </si>
+  <si>
+    <t>ss_roc_a</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>sigma</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel</t>
+  </si>
+  <si>
+    <t>SteadyChange</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Consumption</t>
+  </si>
+  <si>
+    <t>Investment</t>
+  </si>
+  <si>
+    <t>Capital</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Shock to technology</t>
+  </si>
+  <si>
+    <t>Shock to labor force</t>
+  </si>
+  <si>
+    <t>Shock to saving ratio</t>
+  </si>
+  <si>
+    <t>Gross rate of chang in technology</t>
+  </si>
+  <si>
+    <t>Labor share of production</t>
+  </si>
+  <si>
+    <t>Depreciation of capital</t>
+  </si>
+  <si>
+    <t>Saving ratio</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>shk_a</t>
+  </si>
+  <si>
+    <t>shk_n</t>
+  </si>
+  <si>
+    <t>shk_c</t>
+  </si>
+  <si>
+    <t>ss_roc_a</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>sigma</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel</t>
+  </si>
+  <si>
+    <t>SteadyChange</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Consumption</t>
+  </si>
+  <si>
+    <t>Investment</t>
+  </si>
+  <si>
+    <t>Capital</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Shock to technology</t>
+  </si>
+  <si>
+    <t>Shock to labor force</t>
+  </si>
+  <si>
+    <t>Shock to saving ratio</t>
+  </si>
+  <si>
+    <t>Gross rate of chang in technology</t>
+  </si>
+  <si>
+    <t>Labor share of production</t>
+  </si>
+  <si>
+    <t>Depreciation of capital</t>
+  </si>
+  <si>
+    <t>Saving ratio</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>shk_a</t>
+  </si>
+  <si>
+    <t>shk_n</t>
+  </si>
+  <si>
+    <t>shk_c</t>
+  </si>
+  <si>
+    <t>ss_roc_a</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>sigma</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel</t>
+  </si>
+  <si>
+    <t>SteadyChange</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Consumption</t>
+  </si>
+  <si>
+    <t>Investment</t>
+  </si>
+  <si>
+    <t>Capital</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Shock to technology</t>
+  </si>
+  <si>
+    <t>Shock to labor force</t>
+  </si>
+  <si>
+    <t>Shock to saving ratio</t>
+  </si>
+  <si>
+    <t>Gross rate of chang in technology</t>
+  </si>
+  <si>
+    <t>Labor share of production</t>
+  </si>
+  <si>
+    <t>Depreciation of capital</t>
+  </si>
+  <si>
+    <t>Saving ratio</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>shk_a</t>
+  </si>
+  <si>
+    <t>shk_n</t>
+  </si>
+  <si>
+    <t>shk_c</t>
+  </si>
+  <si>
+    <t>ss_roc_a</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>sigma</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel</t>
+  </si>
+  <si>
+    <t>SteadyChange</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Consumption</t>
+  </si>
+  <si>
+    <t>Investment</t>
+  </si>
+  <si>
+    <t>Capital</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Shock to technology</t>
+  </si>
+  <si>
+    <t>Shock to labor force</t>
+  </si>
+  <si>
+    <t>Shock to saving ratio</t>
+  </si>
+  <si>
+    <t>Gross rate of chang in technology</t>
+  </si>
+  <si>
+    <t>Labor share of production</t>
+  </si>
+  <si>
+    <t>Depreciation of capital</t>
+  </si>
+  <si>
+    <t>Saving ratio</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>shk_a</t>
+  </si>
+  <si>
+    <t>shk_n</t>
+  </si>
+  <si>
+    <t>shk_c</t>
+  </si>
+  <si>
+    <t>ss_roc_a</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>ss_roc_n</t>
+  </si>
+  <si>
+    <t>sigma</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel</t>
+  </si>
+  <si>
+    <t>SteadyChange</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Consumption</t>
+  </si>
+  <si>
+    <t>Investment</t>
+  </si>
+  <si>
+    <t>Capital</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Shock to technology</t>
+  </si>
+  <si>
+    <t>Shock to labor force</t>
+  </si>
+  <si>
+    <t>Shock to saving ratio</t>
+  </si>
+  <si>
+    <t>Gross rate of chang in technology</t>
+  </si>
+  <si>
+    <t>Labor share of production</t>
+  </si>
+  <si>
+    <t>Depreciation of capital</t>
+  </si>
+  <si>
+    <t>Gross rate of growth in labor force</t>
+  </si>
+  <si>
+    <t>Saving ratio</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>shk_a</t>
+  </si>
+  <si>
+    <t>shk_n</t>
+  </si>
+  <si>
+    <t>shk_c</t>
+  </si>
+  <si>
+    <t>ss_roc_a</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>ss_roc_n</t>
+  </si>
+  <si>
+    <t>sigma</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel</t>
+  </si>
+  <si>
+    <t>SteadyChange</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Consumption</t>
+  </si>
+  <si>
+    <t>Investment</t>
+  </si>
+  <si>
+    <t>Capital</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Shock to technology</t>
+  </si>
+  <si>
+    <t>Shock to labor force</t>
+  </si>
+  <si>
+    <t>Shock to saving ratio</t>
+  </si>
+  <si>
+    <t>Gross rate of chang in technology</t>
+  </si>
+  <si>
+    <t>Labor share of production</t>
+  </si>
+  <si>
+    <t>Depreciation of capital</t>
+  </si>
+  <si>
+    <t>Gross rate of growth in labor force</t>
+  </si>
+  <si>
+    <t>Saving ratio</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>shk_a</t>
+  </si>
+  <si>
+    <t>shk_n</t>
+  </si>
+  <si>
+    <t>shk_c</t>
+  </si>
+  <si>
+    <t>ss_roc_a</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>ss_roc_n</t>
+  </si>
+  <si>
+    <t>sigma</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel</t>
+  </si>
+  <si>
+    <t>SteadyChange</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Consumption</t>
+  </si>
+  <si>
+    <t>Investment</t>
+  </si>
+  <si>
+    <t>Capital</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Shock to technology</t>
+  </si>
+  <si>
+    <t>Shock to labor force</t>
+  </si>
+  <si>
+    <t>Shock to saving ratio</t>
+  </si>
+  <si>
+    <t>Gross rate of chang in technology</t>
+  </si>
+  <si>
+    <t>Labor share of production</t>
+  </si>
+  <si>
+    <t>Depreciation of capital</t>
+  </si>
+  <si>
+    <t>Gross rate of growth in labor force</t>
+  </si>
+  <si>
+    <t>Saving ratio</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>shk_a</t>
+  </si>
+  <si>
+    <t>shk_n</t>
+  </si>
+  <si>
+    <t>shk_c</t>
+  </si>
+  <si>
+    <t>ss_roc_a</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>ss_roc_n</t>
+  </si>
+  <si>
+    <t>sigma</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel</t>
+  </si>
+  <si>
+    <t>SteadyChange</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Consumption</t>
+  </si>
+  <si>
+    <t>Investment</t>
+  </si>
+  <si>
+    <t>Capital</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Shock to technology</t>
+  </si>
+  <si>
+    <t>Shock to labor force</t>
+  </si>
+  <si>
+    <t>Shock to saving ratio</t>
+  </si>
+  <si>
+    <t>Gross rate of chang in technology</t>
+  </si>
+  <si>
+    <t>Labor share of production</t>
+  </si>
+  <si>
+    <t>Depreciation of capital</t>
+  </si>
+  <si>
+    <t>Gross rate of growth in labor force</t>
+  </si>
+  <si>
+    <t>Saving ratio</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>shk_a</t>
+  </si>
+  <si>
+    <t>shk_n</t>
+  </si>
+  <si>
+    <t>shk_c</t>
+  </si>
+  <si>
+    <t>ss_roc_a</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>ss_roc_n</t>
+  </si>
+  <si>
+    <t>sigma</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel</t>
+  </si>
+  <si>
+    <t>SteadyChange</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Consumption</t>
+  </si>
+  <si>
+    <t>Investment</t>
+  </si>
+  <si>
+    <t>Capital</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Shock to technology</t>
+  </si>
+  <si>
+    <t>Shock to labor force</t>
+  </si>
+  <si>
+    <t>Shock to saving ratio</t>
+  </si>
+  <si>
+    <t>Gross rate of chang in technology</t>
+  </si>
+  <si>
+    <t>Labor share of production</t>
+  </si>
+  <si>
+    <t>Depreciation of capital</t>
+  </si>
+  <si>
+    <t>Gross rate of growth in labor force</t>
+  </si>
+  <si>
+    <t>Saving ratio</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>shk_a</t>
+  </si>
+  <si>
+    <t>shk_n</t>
+  </si>
+  <si>
+    <t>shk_c</t>
+  </si>
+  <si>
+    <t>ss_roc_a</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>ss_roc_n</t>
+  </si>
+  <si>
+    <t>sigma</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel</t>
+  </si>
+  <si>
+    <t>SteadyChange</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Consumption</t>
+  </si>
+  <si>
+    <t>Investment</t>
+  </si>
+  <si>
+    <t>Capital</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Shock to technology</t>
+  </si>
+  <si>
+    <t>Shock to labor force</t>
+  </si>
+  <si>
+    <t>Shock to saving ratio</t>
+  </si>
+  <si>
+    <t>Gross rate of chang in technology</t>
+  </si>
+  <si>
+    <t>Labor share of production</t>
+  </si>
+  <si>
+    <t>Depreciation of capital</t>
+  </si>
+  <si>
+    <t>Gross rate of growth in labor force</t>
+  </si>
+  <si>
+    <t>Saving ratio</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>roc_y</t>
+  </si>
+  <si>
+    <t>k_to_y</t>
+  </si>
+  <si>
+    <t>yy</t>
+  </si>
+  <si>
+    <t>shk_a</t>
+  </si>
+  <si>
+    <t>shk_n</t>
+  </si>
+  <si>
+    <t>shk_c</t>
+  </si>
+  <si>
+    <t>ss_roc_a</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>ss_roc_n</t>
+  </si>
+  <si>
+    <t>sigma</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel</t>
+  </si>
+  <si>
+    <t>SteadyChange</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Consumption</t>
+  </si>
+  <si>
+    <t>Investment</t>
+  </si>
+  <si>
+    <t>Capital</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Ouput, rate of change</t>
+  </si>
+  <si>
+    <t>Capital to output ratio</t>
+  </si>
+  <si>
+    <t>Log of output</t>
+  </si>
+  <si>
+    <t>Shock to technology</t>
+  </si>
+  <si>
+    <t>Shock to labor force</t>
+  </si>
+  <si>
+    <t>Shock to saving ratio</t>
+  </si>
+  <si>
+    <t>Gross rate of chang in technology</t>
+  </si>
+  <si>
+    <t>Labor share of production</t>
+  </si>
+  <si>
+    <t>Depreciation of capital</t>
+  </si>
+  <si>
+    <t>Gross rate of growth in labor force</t>
+  </si>
+  <si>
+    <t>Saving ratio</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>shk_a</t>
+  </si>
+  <si>
+    <t>shk_n</t>
+  </si>
+  <si>
+    <t>shk_c</t>
+  </si>
+  <si>
+    <t>ss_roc_a</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>ss_roc_n</t>
+  </si>
+  <si>
+    <t>sigma</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel</t>
+  </si>
+  <si>
+    <t>SteadyChange</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Consumption</t>
+  </si>
+  <si>
+    <t>Investment</t>
+  </si>
+  <si>
+    <t>Capital</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Shock to technology</t>
+  </si>
+  <si>
+    <t>Shock to labor force</t>
+  </si>
+  <si>
+    <t>Shock to saving ratio</t>
+  </si>
+  <si>
+    <t>Gross rate of chang in technology</t>
+  </si>
+  <si>
+    <t>Labor share of production</t>
+  </si>
+  <si>
+    <t>Depreciation of capital</t>
+  </si>
+  <si>
+    <t>Gross rate of growth in labor force</t>
+  </si>
+  <si>
+    <t>Saving ratio</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>roc_y</t>
+  </si>
+  <si>
+    <t>k_to_y</t>
+  </si>
+  <si>
+    <t>yy</t>
+  </si>
+  <si>
+    <t>shk_a</t>
+  </si>
+  <si>
+    <t>shk_n</t>
+  </si>
+  <si>
+    <t>shk_c</t>
+  </si>
+  <si>
+    <t>ss_roc_a</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>ss_roc_n</t>
+  </si>
+  <si>
+    <t>sigma</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel</t>
+  </si>
+  <si>
+    <t>SteadyChange</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Consumption</t>
+  </si>
+  <si>
+    <t>Investment</t>
+  </si>
+  <si>
+    <t>Capital</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Ouput, rate of change</t>
+  </si>
+  <si>
+    <t>Capital to output ratio</t>
+  </si>
+  <si>
+    <t>Log of output</t>
+  </si>
+  <si>
+    <t>Shock to technology</t>
+  </si>
+  <si>
+    <t>Shock to labor force</t>
+  </si>
+  <si>
+    <t>Shock to saving ratio</t>
+  </si>
+  <si>
+    <t>Gross rate of chang in technology</t>
+  </si>
+  <si>
+    <t>Labor share of production</t>
+  </si>
+  <si>
+    <t>Depreciation of capital</t>
+  </si>
+  <si>
+    <t>Gross rate of growth in labor force</t>
+  </si>
+  <si>
+    <t>Saving ratio</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>roc_y</t>
+  </si>
+  <si>
+    <t>k_to_y</t>
+  </si>
+  <si>
+    <t>yy</t>
+  </si>
+  <si>
+    <t>shk_a</t>
+  </si>
+  <si>
+    <t>shk_n</t>
+  </si>
+  <si>
+    <t>shk_c</t>
+  </si>
+  <si>
+    <t>ss_roc_a</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>ss_roc_n</t>
+  </si>
+  <si>
+    <t>sigma</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel</t>
+  </si>
+  <si>
+    <t>SteadyChange</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Consumption</t>
+  </si>
+  <si>
+    <t>Investment</t>
+  </si>
+  <si>
+    <t>Capital</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Ouput, rate of change</t>
+  </si>
+  <si>
+    <t>Capital to output ratio</t>
+  </si>
+  <si>
+    <t>Log of output</t>
+  </si>
+  <si>
+    <t>Shock to technology</t>
+  </si>
+  <si>
+    <t>Shock to labor force</t>
+  </si>
+  <si>
+    <t>Shock to saving ratio</t>
+  </si>
+  <si>
+    <t>Gross rate of chang in technology</t>
+  </si>
+  <si>
+    <t>Labor share of production</t>
+  </si>
+  <si>
+    <t>Depreciation of capital</t>
+  </si>
+  <si>
+    <t>Gross rate of growth in labor force</t>
+  </si>
+  <si>
+    <t>Saving ratio</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>roc_y</t>
+  </si>
+  <si>
+    <t>k_to_y</t>
+  </si>
+  <si>
+    <t>yy</t>
+  </si>
+  <si>
+    <t>shk_a</t>
+  </si>
+  <si>
+    <t>shk_n</t>
+  </si>
+  <si>
+    <t>shk_c</t>
+  </si>
+  <si>
+    <t>ss_roc_a</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>ss_roc_n</t>
+  </si>
+  <si>
+    <t>sigma</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel</t>
+  </si>
+  <si>
+    <t>SteadyChange</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Consumption</t>
+  </si>
+  <si>
+    <t>Investment</t>
+  </si>
+  <si>
+    <t>Capital</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Ouput, rate of change</t>
+  </si>
+  <si>
+    <t>Capital to output ratio</t>
+  </si>
+  <si>
+    <t>Log of output</t>
+  </si>
+  <si>
+    <t>Shock to technology</t>
+  </si>
+  <si>
+    <t>Shock to labor force</t>
+  </si>
+  <si>
+    <t>Shock to saving ratio</t>
+  </si>
+  <si>
+    <t>Gross rate of chang in technology</t>
+  </si>
+  <si>
+    <t>Labor share of production</t>
+  </si>
+  <si>
+    <t>Depreciation of capital</t>
+  </si>
+  <si>
+    <t>Gross rate of growth in labor force</t>
+  </si>
+  <si>
+    <t>Saving ratio</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>roc_y</t>
+  </si>
+  <si>
+    <t>k_to_y</t>
+  </si>
+  <si>
+    <t>yy</t>
+  </si>
+  <si>
+    <t>shk_a</t>
+  </si>
+  <si>
+    <t>shk_n</t>
+  </si>
+  <si>
+    <t>shk_c</t>
+  </si>
+  <si>
+    <t>ss_roc_a</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>ss_roc_n</t>
+  </si>
+  <si>
+    <t>sigma</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel</t>
+  </si>
+  <si>
+    <t>SteadyChange</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Consumption</t>
+  </si>
+  <si>
+    <t>Investment</t>
+  </si>
+  <si>
+    <t>Capital</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Ouput, rate of change</t>
+  </si>
+  <si>
+    <t>Capital to output ratio</t>
+  </si>
+  <si>
+    <t>Log of output</t>
+  </si>
+  <si>
+    <t>Shock to technology</t>
+  </si>
+  <si>
+    <t>Shock to labor force</t>
+  </si>
+  <si>
+    <t>Shock to saving ratio</t>
+  </si>
+  <si>
+    <t>Gross rate of chang in technology</t>
+  </si>
+  <si>
+    <t>Labor share of production</t>
+  </si>
+  <si>
+    <t>Depreciation of capital</t>
+  </si>
+  <si>
+    <t>Gross rate of growth in labor force</t>
+  </si>
+  <si>
+    <t>Saving ratio</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>roc_y</t>
+  </si>
+  <si>
+    <t>k_to_y</t>
+  </si>
+  <si>
+    <t>yy</t>
+  </si>
+  <si>
+    <t>shk_a</t>
+  </si>
+  <si>
+    <t>shk_n</t>
+  </si>
+  <si>
+    <t>shk_c</t>
+  </si>
+  <si>
+    <t>ss_roc_a</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>ss_roc_n</t>
+  </si>
+  <si>
+    <t>sigma</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel</t>
+  </si>
+  <si>
+    <t>SteadyChange</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Consumption</t>
+  </si>
+  <si>
+    <t>Investment</t>
+  </si>
+  <si>
+    <t>Capital</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Ouput, rate of change</t>
+  </si>
+  <si>
+    <t>Capital to output ratio</t>
+  </si>
+  <si>
+    <t>Log of output</t>
+  </si>
+  <si>
+    <t>Shock to technology</t>
+  </si>
+  <si>
+    <t>Shock to labor force</t>
+  </si>
+  <si>
+    <t>Shock to saving ratio</t>
+  </si>
+  <si>
+    <t>Gross rate of chang in technology</t>
+  </si>
+  <si>
+    <t>Labor share of production</t>
+  </si>
+  <si>
+    <t>Depreciation of capital</t>
+  </si>
+  <si>
+    <t>Gross rate of growth in labor force</t>
+  </si>
+  <si>
+    <t>Saving ratio</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>roc_y</t>
+  </si>
+  <si>
+    <t>k_to_y</t>
+  </si>
+  <si>
+    <t>yy</t>
+  </si>
+  <si>
+    <t>shk_a</t>
+  </si>
+  <si>
+    <t>shk_n</t>
+  </si>
+  <si>
+    <t>shk_c</t>
+  </si>
+  <si>
+    <t>ss_roc_a</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>ss_roc_n</t>
+  </si>
+  <si>
+    <t>sigma</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel</t>
+  </si>
+  <si>
+    <t>SteadyChange</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Consumption</t>
+  </si>
+  <si>
+    <t>Investment</t>
+  </si>
+  <si>
+    <t>Capital</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Ouput, rate of change</t>
+  </si>
+  <si>
+    <t>Capital to output ratio</t>
+  </si>
+  <si>
+    <t>Log of output</t>
+  </si>
+  <si>
+    <t>Shock to technology</t>
+  </si>
+  <si>
+    <t>Shock to labor force</t>
+  </si>
+  <si>
+    <t>Shock to saving ratio</t>
+  </si>
+  <si>
+    <t>Gross rate of chang in technology</t>
+  </si>
+  <si>
+    <t>Labor share of production</t>
+  </si>
+  <si>
+    <t>Depreciation of capital</t>
+  </si>
+  <si>
+    <t>Gross rate of growth in labor force</t>
+  </si>
+  <si>
+    <t>Saving ratio</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>roc_y</t>
+  </si>
+  <si>
+    <t>k_to_y</t>
+  </si>
+  <si>
+    <t>yy</t>
+  </si>
+  <si>
+    <t>shk_a</t>
+  </si>
+  <si>
+    <t>shk_n</t>
+  </si>
+  <si>
+    <t>shk_c</t>
+  </si>
+  <si>
+    <t>ss_roc_a</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>ss_roc_n</t>
+  </si>
+  <si>
+    <t>sigma</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel</t>
+  </si>
+  <si>
+    <t>SteadyChange</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Consumption</t>
+  </si>
+  <si>
+    <t>Investment</t>
+  </si>
+  <si>
+    <t>Capital</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Ouput, rate of change</t>
+  </si>
+  <si>
+    <t>Capital to output ratio</t>
+  </si>
+  <si>
+    <t>Log of output</t>
+  </si>
+  <si>
+    <t>Shock to technology</t>
+  </si>
+  <si>
+    <t>Shock to labor force</t>
+  </si>
+  <si>
+    <t>Shock to saving ratio</t>
+  </si>
+  <si>
+    <t>Gross rate of chang in technology</t>
+  </si>
+  <si>
+    <t>Labor share of production</t>
+  </si>
+  <si>
+    <t>Depreciation of capital</t>
+  </si>
+  <si>
+    <t>Gross rate of growth in labor force</t>
+  </si>
+  <si>
+    <t>Saving ratio</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>roc_y</t>
+  </si>
+  <si>
+    <t>k_to_y</t>
+  </si>
+  <si>
+    <t>yy</t>
+  </si>
+  <si>
+    <t>shk_a</t>
+  </si>
+  <si>
+    <t>shk_n</t>
+  </si>
+  <si>
+    <t>shk_c</t>
+  </si>
+  <si>
+    <t>ss_roc_a</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>ss_roc_n</t>
+  </si>
+  <si>
+    <t>sigma</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel</t>
+  </si>
+  <si>
+    <t>SteadyChange</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Consumption</t>
+  </si>
+  <si>
+    <t>Investment</t>
+  </si>
+  <si>
+    <t>Capital</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Ouput, rate of change</t>
+  </si>
+  <si>
+    <t>Capital to output ratio</t>
+  </si>
+  <si>
+    <t>Log of output</t>
+  </si>
+  <si>
+    <t>Shock to technology</t>
+  </si>
+  <si>
+    <t>Shock to labor force</t>
+  </si>
+  <si>
+    <t>Shock to saving ratio</t>
+  </si>
+  <si>
+    <t>Gross rate of chang in technology</t>
+  </si>
+  <si>
+    <t>Labor share of production</t>
+  </si>
+  <si>
+    <t>Depreciation of capital</t>
+  </si>
+  <si>
+    <t>Gross rate of growth in labor force</t>
+  </si>
+  <si>
+    <t>Saving ratio</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>roc_y</t>
+  </si>
+  <si>
+    <t>k_to_y</t>
+  </si>
+  <si>
+    <t>yy</t>
+  </si>
+  <si>
+    <t>shk_a</t>
+  </si>
+  <si>
+    <t>shk_n</t>
+  </si>
+  <si>
+    <t>shk_c</t>
+  </si>
+  <si>
+    <t>ss_roc_a</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>ss_roc_n</t>
+  </si>
+  <si>
+    <t>sigma</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel</t>
+  </si>
+  <si>
+    <t>SteadyChange</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Consumption</t>
+  </si>
+  <si>
+    <t>Investment</t>
+  </si>
+  <si>
+    <t>Capital</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Ouput, rate of change</t>
   </si>
   <si>
     <t>Capital to output ratio</t>
@@ -8886,7 +15021,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="76">
+  <borders count="128">
     <border>
       <left/>
       <right/>
@@ -8969,11 +15104,63 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -9050,6 +15237,58 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="73" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="74" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="75" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="76" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="77" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="78" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="79" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="80" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="81" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="82" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="83" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="84" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="85" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="86" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="87" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="88" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="89" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="90" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="91" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="92" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="93" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="94" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="95" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="96" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="97" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="98" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="99" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="100" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="101" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="102" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="103" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="104" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="105" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="106" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="107" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="108" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="109" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="110" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="111" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="112" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="113" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="114" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="115" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="116" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="117" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="118" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="119" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="120" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="121" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="122" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="123" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="124" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="125" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="126" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="127" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9059,7 +15298,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.7109375" customWidth="true"/>
@@ -9067,181 +15306,183 @@
     <col min="3" max="3" width="13.7109375" customWidth="true"/>
     <col min="4" max="4" width="6.7109375" customWidth="true"/>
     <col min="5" max="5" width="31.140625" customWidth="true"/>
+    <col min="6" max="6" width="6.7109375" customWidth="true"/>
+    <col min="7" max="7" width="30.28515625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>2910</v>
+        <v>4953</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>2928</v>
+        <v>4972</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>2929</v>
+        <v>4973</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>2930</v>
+        <v>4974</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>2933</v>
+        <v>4977</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>2911</v>
+        <v>4954</v>
       </c>
       <c r="B2" s="0">
-        <v>1.0934472500000001</v>
+        <v>1.3604181500000001</v>
       </c>
       <c r="C2" s="0">
-        <v>1.0302</v>
+        <v>1.03</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>2931</v>
+        <v>4975</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>2934</v>
+        <v>4978</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>2912</v>
+        <v>4955</v>
       </c>
       <c r="B3" s="0">
-        <v>0.87475780000000003</v>
+        <v>1.0883345200000001</v>
       </c>
       <c r="C3" s="0">
-        <v>1.0302</v>
+        <v>1.03</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>2931</v>
+        <v>4975</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>2935</v>
+        <v>4979</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>2913</v>
+        <v>4956</v>
       </c>
       <c r="B4" s="0">
-        <v>0.21868945000000001</v>
+        <v>0.27208363000000002</v>
       </c>
       <c r="C4" s="0">
-        <v>1.0302</v>
+        <v>1.03</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>2931</v>
+        <v>4975</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>2936</v>
+        <v>4980</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>2914</v>
+        <v>4957</v>
       </c>
       <c r="B5" s="0">
-        <v>1.2502434600000001</v>
+        <v>1.5569229899999999</v>
       </c>
       <c r="C5" s="0">
-        <v>1.0302</v>
+        <v>1.03</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>2931</v>
+        <v>4975</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>2937</v>
+        <v>4981</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>2915</v>
+        <v>4958</v>
       </c>
       <c r="B6" s="0">
+        <v>1.11435872</v>
+      </c>
+      <c r="C6" s="0">
         <v>1</v>
       </c>
-      <c r="C6" s="0">
-        <v>1.01</v>
-      </c>
       <c r="D6" s="0" t="s">
-        <v>2931</v>
+        <v>4975</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>2938</v>
+        <v>4982</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>2916</v>
+        <v>4959</v>
       </c>
       <c r="B7" s="0">
-        <v>1</v>
+        <v>1.11579461</v>
       </c>
       <c r="C7" s="0">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>2931</v>
+        <v>4975</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>2939</v>
+        <v>4983</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>2917</v>
+        <v>4960</v>
       </c>
       <c r="B8" s="0">
-        <v>1.14339623</v>
+        <v>1.03</v>
       </c>
       <c r="C8" s="0">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>2932</v>
+        <v>4975</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>2940</v>
+        <v>4984</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>2918</v>
+        <v>4961</v>
       </c>
       <c r="B9" s="0">
-        <v>0.089335319999999996</v>
+        <v>1.14444444</v>
       </c>
       <c r="C9" s="0">
-        <v>0.029752959999999998</v>
+        <v>0</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>2932</v>
+        <v>4976</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>2941</v>
+        <v>4985</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>2919</v>
+        <v>4962</v>
       </c>
       <c r="B10" s="0">
-        <v>0</v>
+        <v>0.30779211000000001</v>
       </c>
       <c r="C10" s="0">
-        <v>0</v>
+        <v>0.0295588</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>2932</v>
+        <v>4976</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>2942</v>
+        <v>4986</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>2920</v>
+        <v>4963</v>
       </c>
       <c r="B11" s="0">
         <v>0</v>
@@ -9249,16 +15490,14 @@
       <c r="C11" s="0">
         <v>0</v>
       </c>
-      <c r="D11" s="0" t="s">
-        <v>2932</v>
-      </c>
+      <c r="D11" s="0"/>
       <c r="E11" s="0" t="s">
-        <v>2943</v>
+        <v>4987</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>2921</v>
+        <v>4964</v>
       </c>
       <c r="B12" s="0">
         <v>0</v>
@@ -9266,113 +15505,116 @@
       <c r="C12" s="0">
         <v>0</v>
       </c>
-      <c r="D12" s="0" t="s">
-        <v>2932</v>
-      </c>
+      <c r="D12" s="0"/>
       <c r="E12" s="0" t="s">
-        <v>2944</v>
+        <v>4988</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>2922</v>
+        <v>4965</v>
       </c>
       <c r="B13" s="0">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="C13" s="0">
         <v>0</v>
       </c>
-      <c r="D13" s="0" t="s">
-        <v>2932</v>
-      </c>
+      <c r="D13" s="0"/>
       <c r="E13" s="0" t="s">
-        <v>2945</v>
+        <v>4989</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>2923</v>
+        <v>4966</v>
       </c>
       <c r="B14" s="0">
-        <v>0.59999999999999998</v>
+        <v>1.03</v>
       </c>
       <c r="C14" s="0">
         <v>0</v>
       </c>
-      <c r="D14" s="0" t="s">
-        <v>2932</v>
-      </c>
+      <c r="D14" s="0"/>
       <c r="E14" s="0" t="s">
-        <v>2946</v>
+        <v>4990</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>2924</v>
+        <v>4967</v>
       </c>
       <c r="B15" s="0">
-        <v>0.14999999999999999</v>
+        <v>0.59999999999999998</v>
       </c>
       <c r="C15" s="0">
         <v>0</v>
       </c>
-      <c r="D15" s="0" t="s">
-        <v>2932</v>
-      </c>
+      <c r="D15" s="0"/>
       <c r="E15" s="0" t="s">
-        <v>2947</v>
+        <v>4991</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>2925</v>
+        <v>4968</v>
       </c>
       <c r="B16" s="0">
-        <v>1.01</v>
+        <v>0.14999999999999999</v>
       </c>
       <c r="C16" s="0">
         <v>0</v>
       </c>
-      <c r="D16" s="0" t="s">
-        <v>2932</v>
-      </c>
+      <c r="D16" s="0"/>
       <c r="E16" s="0" t="s">
-        <v>2948</v>
+        <v>4992</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>2926</v>
+        <v>4969</v>
       </c>
       <c r="B17" s="0">
-        <v>0.20000000000000001</v>
+        <v>1</v>
       </c>
       <c r="C17" s="0">
         <v>0</v>
       </c>
-      <c r="D17" s="0" t="s">
-        <v>2932</v>
-      </c>
+      <c r="D17" s="0"/>
       <c r="E17" s="0" t="s">
-        <v>2949</v>
+        <v>4993</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>2927</v>
+        <v>4970</v>
       </c>
       <c r="B18" s="0">
+        <v>0.20000000000000001</v>
+      </c>
+      <c r="C18" s="0">
         <v>0</v>
       </c>
-      <c r="C18" s="0">
+      <c r="D18" s="0"/>
+      <c r="E18" s="0" t="s">
+        <v>4994</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>4971</v>
+      </c>
+      <c r="B19" s="0">
+        <v>0</v>
+      </c>
+      <c r="C19" s="0">
         <v>1</v>
       </c>
-      <c r="D18" s="0" t="s">
-        <v>2932</v>
+      <c r="D19" s="0" t="s">
+        <v>4976</v>
       </c>
-      <c r="E18" s="0" t="s">
-        <v>2950</v>
+      <c r="E19" s="0" t="s">
+        <v>4995</v>
       </c>
     </row>
   </sheetData>

--- a/steady.xlsx
+++ b/steady.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6778" uniqueCount="4996">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6984" uniqueCount="5170">
   <si>
     <t>Row</t>
   </si>
@@ -14935,6 +14935,528 @@
   </si>
   <si>
     <t>SteadyChange</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Consumption</t>
+  </si>
+  <si>
+    <t>Investment</t>
+  </si>
+  <si>
+    <t>Capital</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Ouput, rate of change</t>
+  </si>
+  <si>
+    <t>Capital to output ratio</t>
+  </si>
+  <si>
+    <t>Log of output</t>
+  </si>
+  <si>
+    <t>Shock to technology</t>
+  </si>
+  <si>
+    <t>Shock to labor force</t>
+  </si>
+  <si>
+    <t>Shock to saving ratio</t>
+  </si>
+  <si>
+    <t>Gross rate of chang in technology</t>
+  </si>
+  <si>
+    <t>Labor share of production</t>
+  </si>
+  <si>
+    <t>Depreciation of capital</t>
+  </si>
+  <si>
+    <t>Gross rate of growth in labor force</t>
+  </si>
+  <si>
+    <t>Saving ratio</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>roc_y</t>
+  </si>
+  <si>
+    <t>k_to_y</t>
+  </si>
+  <si>
+    <t>yy</t>
+  </si>
+  <si>
+    <t>shk_a</t>
+  </si>
+  <si>
+    <t>shk_n</t>
+  </si>
+  <si>
+    <t>shk_c</t>
+  </si>
+  <si>
+    <t>ss_roc_a</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>ss_roc_n</t>
+  </si>
+  <si>
+    <t>sigma</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel</t>
+  </si>
+  <si>
+    <t>SteadyChange</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Consumption</t>
+  </si>
+  <si>
+    <t>Investment</t>
+  </si>
+  <si>
+    <t>Capital</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Ouput, rate of change</t>
+  </si>
+  <si>
+    <t>Capital to output ratio</t>
+  </si>
+  <si>
+    <t>Log of output</t>
+  </si>
+  <si>
+    <t>Shock to technology</t>
+  </si>
+  <si>
+    <t>Shock to labor force</t>
+  </si>
+  <si>
+    <t>Shock to saving ratio</t>
+  </si>
+  <si>
+    <t>Gross rate of chang in technology</t>
+  </si>
+  <si>
+    <t>Labor share of production</t>
+  </si>
+  <si>
+    <t>Depreciation of capital</t>
+  </si>
+  <si>
+    <t>Gross rate of growth in labor force</t>
+  </si>
+  <si>
+    <t>Saving ratio</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>roc_y</t>
+  </si>
+  <si>
+    <t>k_to_y</t>
+  </si>
+  <si>
+    <t>yy</t>
+  </si>
+  <si>
+    <t>shk_a</t>
+  </si>
+  <si>
+    <t>shk_n</t>
+  </si>
+  <si>
+    <t>shk_c</t>
+  </si>
+  <si>
+    <t>ss_roc_a</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>ss_roc_n</t>
+  </si>
+  <si>
+    <t>sigma</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel</t>
+  </si>
+  <si>
+    <t>SteadyChange</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Consumption</t>
+  </si>
+  <si>
+    <t>Investment</t>
+  </si>
+  <si>
+    <t>Capital</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Ouput, rate of change</t>
+  </si>
+  <si>
+    <t>Capital to output ratio</t>
+  </si>
+  <si>
+    <t>Log of output</t>
+  </si>
+  <si>
+    <t>Shock to technology</t>
+  </si>
+  <si>
+    <t>Shock to labor force</t>
+  </si>
+  <si>
+    <t>Shock to saving ratio</t>
+  </si>
+  <si>
+    <t>Gross rate of chang in technology</t>
+  </si>
+  <si>
+    <t>Labor share of production</t>
+  </si>
+  <si>
+    <t>Depreciation of capital</t>
+  </si>
+  <si>
+    <t>Gross rate of growth in labor force</t>
+  </si>
+  <si>
+    <t>Saving ratio</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>roc_y</t>
+  </si>
+  <si>
+    <t>k_to_y</t>
+  </si>
+  <si>
+    <t>yy</t>
+  </si>
+  <si>
+    <t>shk_a</t>
+  </si>
+  <si>
+    <t>shk_n</t>
+  </si>
+  <si>
+    <t>shk_c</t>
+  </si>
+  <si>
+    <t>ss_roc_a</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>ss_roc_n</t>
+  </si>
+  <si>
+    <t>sigma</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel</t>
+  </si>
+  <si>
+    <t>SteadyChange</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Consumption</t>
+  </si>
+  <si>
+    <t>Investment</t>
+  </si>
+  <si>
+    <t>Capital</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Ouput, rate of change</t>
+  </si>
+  <si>
+    <t>Capital to output ratio</t>
+  </si>
+  <si>
+    <t>Log of output</t>
+  </si>
+  <si>
+    <t>Shock to technology</t>
+  </si>
+  <si>
+    <t>Shock to labor force</t>
+  </si>
+  <si>
+    <t>Shock to saving ratio</t>
+  </si>
+  <si>
+    <t>Gross rate of chang in technology</t>
+  </si>
+  <si>
+    <t>Labor share of production</t>
+  </si>
+  <si>
+    <t>Depreciation of capital</t>
+  </si>
+  <si>
+    <t>Gross rate of growth in labor force</t>
+  </si>
+  <si>
+    <t>Saving ratio</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>roc_y</t>
+  </si>
+  <si>
+    <t>k_to_y</t>
+  </si>
+  <si>
+    <t>yy</t>
+  </si>
+  <si>
+    <t>shk_a</t>
+  </si>
+  <si>
+    <t>shk_n</t>
+  </si>
+  <si>
+    <t>shk_c</t>
+  </si>
+  <si>
+    <t>ss_roc_a</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>ss_roc_n</t>
+  </si>
+  <si>
+    <t>sigma</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel_1</t>
+  </si>
+  <si>
+    <t>SteadyLevel_2</t>
+  </si>
+  <si>
+    <t>SteadyChange_1</t>
+  </si>
+  <si>
+    <t>SteadyChange_2</t>
   </si>
   <si>
     <t>Form</t>
@@ -15298,191 +15820,251 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:G19"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.7109375" customWidth="true"/>
-    <col min="2" max="2" width="11.85546875" customWidth="true"/>
-    <col min="3" max="3" width="13.7109375" customWidth="true"/>
-    <col min="4" max="4" width="6.7109375" customWidth="true"/>
-    <col min="5" max="5" width="31.140625" customWidth="true"/>
+    <col min="2" max="2" width="13.85546875" customWidth="true"/>
+    <col min="3" max="3" width="13.85546875" customWidth="true"/>
+    <col min="4" max="4" width="15.7109375" customWidth="true"/>
+    <col min="5" max="5" width="15.7109375" customWidth="true"/>
     <col min="6" max="6" width="6.7109375" customWidth="true"/>
-    <col min="7" max="7" width="30.28515625" customWidth="true"/>
+    <col min="7" max="7" width="31.140625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>4953</v>
+        <v>5125</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>4972</v>
+        <v>5144</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>4973</v>
+        <v>5145</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>4974</v>
+        <v>5146</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>4977</v>
+        <v>5147</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5148</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>5151</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>4954</v>
+        <v>5126</v>
       </c>
       <c r="B2" s="0">
-        <v>1.3604181500000001</v>
+        <v>1.36219907</v>
       </c>
       <c r="C2" s="0">
+        <v>1.3587130999999999</v>
+      </c>
+      <c r="D2" s="0">
         <v>1.03</v>
       </c>
-      <c r="D2" s="0" t="s">
-        <v>4975</v>
+      <c r="E2" s="0">
+        <v>1.03</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>4978</v>
+      <c r="F2" s="0" t="s">
+        <v>5149</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>5152</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>4955</v>
+        <v>5127</v>
       </c>
       <c r="B3" s="0">
-        <v>1.0883345200000001</v>
+        <v>1.08975925</v>
       </c>
       <c r="C3" s="0">
+        <v>1.08697048</v>
+      </c>
+      <c r="D3" s="0">
         <v>1.03</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>4975</v>
+      <c r="E3" s="0">
+        <v>1.03</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>4979</v>
+      <c r="F3" s="0" t="s">
+        <v>5149</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>5153</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>4956</v>
+        <v>5128</v>
       </c>
       <c r="B4" s="0">
-        <v>0.27208363000000002</v>
+        <v>0.27243981</v>
       </c>
       <c r="C4" s="0">
+        <v>0.27174261999999999</v>
+      </c>
+      <c r="D4" s="0">
         <v>1.03</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>4975</v>
+      <c r="E4" s="0">
+        <v>1.03</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>4980</v>
+      <c r="F4" s="0" t="s">
+        <v>5149</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>5154</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>4957</v>
+        <v>5129</v>
       </c>
       <c r="B5" s="0">
-        <v>1.5569229899999999</v>
+        <v>1.55896116</v>
       </c>
       <c r="C5" s="0">
+        <v>1.5549716600000001</v>
+      </c>
+      <c r="D5" s="0">
         <v>1.03</v>
       </c>
-      <c r="D5" s="0" t="s">
-        <v>4975</v>
+      <c r="E5" s="0">
+        <v>1.03</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>4981</v>
+      <c r="F5" s="0" t="s">
+        <v>5149</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>5155</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>4958</v>
+        <v>5130</v>
       </c>
       <c r="B6" s="0">
-        <v>1.11435872</v>
+        <v>1.1071989499999999</v>
       </c>
       <c r="C6" s="0">
+        <v>1.1210645400000001</v>
+      </c>
+      <c r="D6" s="0">
         <v>1</v>
       </c>
-      <c r="D6" s="0" t="s">
-        <v>4975</v>
+      <c r="E6" s="0">
+        <v>1</v>
       </c>
-      <c r="E6" s="0" t="s">
-        <v>4982</v>
+      <c r="F6" s="0" t="s">
+        <v>5149</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>5156</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>4959</v>
+        <v>5131</v>
       </c>
       <c r="B7" s="0">
         <v>1.11579461</v>
       </c>
       <c r="C7" s="0">
+        <v>1.11579461</v>
+      </c>
+      <c r="D7" s="0">
         <v>1.03</v>
       </c>
-      <c r="D7" s="0" t="s">
-        <v>4975</v>
+      <c r="E7" s="0">
+        <v>1.03</v>
       </c>
-      <c r="E7" s="0" t="s">
-        <v>4983</v>
+      <c r="F7" s="0" t="s">
+        <v>5149</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>5157</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>4960</v>
+        <v>5132</v>
       </c>
       <c r="B8" s="0">
         <v>1.03</v>
       </c>
       <c r="C8" s="0">
+        <v>1.03</v>
+      </c>
+      <c r="D8" s="0">
         <v>1</v>
       </c>
-      <c r="D8" s="0" t="s">
-        <v>4975</v>
+      <c r="E8" s="0">
+        <v>1</v>
       </c>
-      <c r="E8" s="0" t="s">
-        <v>4984</v>
+      <c r="F8" s="0" t="s">
+        <v>5149</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>5158</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>4961</v>
+        <v>5133</v>
       </c>
       <c r="B9" s="0">
         <v>1.14444444</v>
       </c>
       <c r="C9" s="0">
+        <v>1.14444444</v>
+      </c>
+      <c r="D9" s="0">
         <v>0</v>
       </c>
-      <c r="D9" s="0" t="s">
-        <v>4976</v>
+      <c r="E9" s="0">
+        <v>0</v>
       </c>
-      <c r="E9" s="0" t="s">
-        <v>4985</v>
+      <c r="F9" s="0" t="s">
+        <v>5150</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>5159</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>4962</v>
+        <v>5134</v>
       </c>
       <c r="B10" s="0">
-        <v>0.30779211000000001</v>
+        <v>0.30910036000000002</v>
       </c>
       <c r="C10" s="0">
+        <v>0.30653799999999998</v>
+      </c>
+      <c r="D10" s="0">
         <v>0.0295588</v>
       </c>
-      <c r="D10" s="0" t="s">
-        <v>4976</v>
+      <c r="E10" s="0">
+        <v>0.0295588</v>
       </c>
-      <c r="E10" s="0" t="s">
-        <v>4986</v>
+      <c r="F10" s="0" t="s">
+        <v>5150</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>5160</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>4963</v>
+        <v>5135</v>
       </c>
       <c r="B11" s="0">
         <v>0</v>
@@ -15490,14 +16072,20 @@
       <c r="C11" s="0">
         <v>0</v>
       </c>
-      <c r="D11" s="0"/>
-      <c r="E11" s="0" t="s">
-        <v>4987</v>
+      <c r="D11" s="0">
+        <v>0</v>
+      </c>
+      <c r="E11" s="0">
+        <v>0</v>
+      </c>
+      <c r="F11" s="0"/>
+      <c r="G11" s="0" t="s">
+        <v>5161</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>4964</v>
+        <v>5136</v>
       </c>
       <c r="B12" s="0">
         <v>0</v>
@@ -15505,14 +16093,20 @@
       <c r="C12" s="0">
         <v>0</v>
       </c>
-      <c r="D12" s="0"/>
-      <c r="E12" s="0" t="s">
-        <v>4988</v>
+      <c r="D12" s="0">
+        <v>0</v>
+      </c>
+      <c r="E12" s="0">
+        <v>0</v>
+      </c>
+      <c r="F12" s="0"/>
+      <c r="G12" s="0" t="s">
+        <v>5162</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>4965</v>
+        <v>5137</v>
       </c>
       <c r="B13" s="0">
         <v>0</v>
@@ -15520,101 +16114,143 @@
       <c r="C13" s="0">
         <v>0</v>
       </c>
-      <c r="D13" s="0"/>
-      <c r="E13" s="0" t="s">
-        <v>4989</v>
+      <c r="D13" s="0">
+        <v>0</v>
+      </c>
+      <c r="E13" s="0">
+        <v>0</v>
+      </c>
+      <c r="F13" s="0"/>
+      <c r="G13" s="0" t="s">
+        <v>5163</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>4966</v>
+        <v>5138</v>
       </c>
       <c r="B14" s="0">
         <v>1.03</v>
       </c>
       <c r="C14" s="0">
+        <v>1.03</v>
+      </c>
+      <c r="D14" s="0">
         <v>0</v>
       </c>
-      <c r="D14" s="0"/>
-      <c r="E14" s="0" t="s">
-        <v>4990</v>
+      <c r="E14" s="0">
+        <v>0</v>
+      </c>
+      <c r="F14" s="0"/>
+      <c r="G14" s="0" t="s">
+        <v>5164</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>4967</v>
+        <v>5139</v>
       </c>
       <c r="B15" s="0">
-        <v>0.59999999999999998</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="C15" s="0">
+        <v>0.62</v>
+      </c>
+      <c r="D15" s="0">
         <v>0</v>
       </c>
-      <c r="D15" s="0"/>
-      <c r="E15" s="0" t="s">
-        <v>4991</v>
+      <c r="E15" s="0">
+        <v>0</v>
+      </c>
+      <c r="F15" s="0"/>
+      <c r="G15" s="0" t="s">
+        <v>5165</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>4968</v>
+        <v>5140</v>
       </c>
       <c r="B16" s="0">
         <v>0.14999999999999999</v>
       </c>
       <c r="C16" s="0">
+        <v>0.14999999999999999</v>
+      </c>
+      <c r="D16" s="0">
         <v>0</v>
       </c>
-      <c r="D16" s="0"/>
-      <c r="E16" s="0" t="s">
-        <v>4992</v>
+      <c r="E16" s="0">
+        <v>0</v>
+      </c>
+      <c r="F16" s="0"/>
+      <c r="G16" s="0" t="s">
+        <v>5166</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>4969</v>
+        <v>5141</v>
       </c>
       <c r="B17" s="0">
         <v>1</v>
       </c>
       <c r="C17" s="0">
+        <v>1</v>
+      </c>
+      <c r="D17" s="0">
         <v>0</v>
       </c>
-      <c r="D17" s="0"/>
-      <c r="E17" s="0" t="s">
-        <v>4993</v>
+      <c r="E17" s="0">
+        <v>0</v>
+      </c>
+      <c r="F17" s="0"/>
+      <c r="G17" s="0" t="s">
+        <v>5167</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>4970</v>
+        <v>5142</v>
       </c>
       <c r="B18" s="0">
         <v>0.20000000000000001</v>
       </c>
       <c r="C18" s="0">
+        <v>0.20000000000000001</v>
+      </c>
+      <c r="D18" s="0">
         <v>0</v>
       </c>
-      <c r="D18" s="0"/>
-      <c r="E18" s="0" t="s">
-        <v>4994</v>
+      <c r="E18" s="0">
+        <v>0</v>
+      </c>
+      <c r="F18" s="0"/>
+      <c r="G18" s="0" t="s">
+        <v>5168</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>4971</v>
+        <v>5143</v>
       </c>
       <c r="B19" s="0">
         <v>0</v>
       </c>
       <c r="C19" s="0">
+        <v>0</v>
+      </c>
+      <c r="D19" s="0">
         <v>1</v>
       </c>
-      <c r="D19" s="0" t="s">
-        <v>4976</v>
+      <c r="E19" s="0">
+        <v>1</v>
       </c>
-      <c r="E19" s="0" t="s">
-        <v>4995</v>
+      <c r="F19" s="0" t="s">
+        <v>5150</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>5169</v>
       </c>
     </row>
   </sheetData>
